--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cplayer/Documents/LabDocs/twl/江阴项目/2018.6.25讨论材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9483C10-AD72-0F41-94E7-AC9F9D0B9D04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息管理" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="库存管理" sheetId="3" r:id="rId3"/>
     <sheet name="入库模块" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1808,10 +1807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>origanizationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组织编码</t>
     <rPh sb="0" eb="1">
       <t>zu zhi</t>
@@ -2208,10 +2203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>materialsku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blockedQuantity</t>
   </si>
   <si>
@@ -2267,22 +2258,32 @@
     <t>materialCtrlProp</t>
   </si>
   <si>
+    <t>materialCtrlPropId</t>
+  </si>
+  <si>
+    <t>materialId</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialSku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>materialCtrlPropVal</t>
-  </si>
-  <si>
-    <t>materialCtrlPropId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>materialCtrlPropValVer</t>
-  </si>
-  <si>
-    <t>materialId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2806,11 +2807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2827,10 +2828,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -2899,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -2913,7 +2914,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2921,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2943,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2957,7 +2958,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -2989,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -3008,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -3028,7 +3029,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -3048,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -3108,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -3120,18 +3121,18 @@
         <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
@@ -3197,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -3211,7 +3212,7 @@
         <v>91</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3303,7 +3304,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
@@ -3356,17 +3357,17 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3425,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
@@ -3439,7 +3440,7 @@
         <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="12"/>
@@ -3449,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -3463,7 +3464,7 @@
         <v>91</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -3472,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>12</v>
@@ -3493,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
@@ -3546,10 +3547,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="5" t="s">
@@ -3615,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>14</v>
@@ -3738,10 +3739,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="5" t="s">
@@ -3807,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>14</v>
@@ -3821,7 +3822,7 @@
         <v>91</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3829,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>12</v>
@@ -3906,10 +3907,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="5" t="s">
@@ -3975,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>14</v>
@@ -4012,7 +4013,7 @@
         <v>91</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -4032,15 +4033,15 @@
         <v>91</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="5" t="s">
@@ -4106,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>12</v>
@@ -4130,7 +4131,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
@@ -4149,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>14</v>
@@ -4232,10 +4233,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="5" t="s">
@@ -4301,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>14</v>
@@ -4315,7 +4316,7 @@
         <v>91</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4345,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>12</v>
@@ -4384,17 +4385,17 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -4453,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>12</v>
@@ -4465,7 +4466,7 @@
         <v>91</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L85" s="13"/>
     </row>
@@ -4474,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>12</v>
@@ -4486,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4501,10 +4502,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="5" t="s">
@@ -4573,7 +4574,7 @@
         <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D93" s="3">
         <v>4</v>
@@ -4614,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>12</v>
@@ -4631,10 +4632,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5" t="s">
@@ -4720,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>12</v>
@@ -4732,7 +4733,7 @@
         <v>91</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -4759,10 +4760,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="5" t="s">
@@ -4850,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>14</v>
@@ -4864,7 +4865,7 @@
         <v>91</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4872,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>12</v>
@@ -4892,7 +4893,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>12</v>
@@ -4955,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4975,7 +4976,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5088,10 +5089,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -5404,14 +5405,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5577,7 +5578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5595,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>134</v>
@@ -5675,7 +5676,7 @@
         <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5683,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -5697,7 +5698,7 @@
         <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5719,7 +5720,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5727,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -5739,7 +5740,7 @@
         <v>90</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5767,7 +5768,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -5787,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -5814,7 +5815,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>138</v>
@@ -5883,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -5897,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5919,7 +5920,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5927,7 +5928,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -5939,7 +5940,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -5989,7 +5990,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
@@ -6006,10 +6007,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
@@ -6075,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
@@ -6098,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -6112,7 +6113,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6134,7 +6135,7 @@
         <v>90</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6142,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
@@ -6162,7 +6163,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -6182,10 +6183,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
@@ -6204,7 +6205,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>145</v>
@@ -6287,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
@@ -6311,10 +6312,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -6328,10 +6329,10 @@
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="K1" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="5" t="s">
@@ -6443,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -6464,7 +6465,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
@@ -6486,10 +6487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -6530,7 +6531,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -6544,14 +6545,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>12</v>
@@ -6563,7 +6564,7 @@
         <v>91</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -6590,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>12</v>
@@ -6629,7 +6630,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>12</v>
@@ -6766,7 +6767,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -6827,7 +6828,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -6848,7 +6849,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -6908,7 +6909,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -6925,7 +6926,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="K20" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>60</v>
@@ -7040,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -7062,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>14</v>
@@ -7084,7 +7085,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
@@ -7106,7 +7107,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>14</v>
@@ -7128,10 +7129,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
@@ -7191,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
@@ -7203,7 +7204,7 @@
         <v>92</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -7211,7 +7212,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
@@ -7230,7 +7231,7 @@
         <v>6</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -7310,7 +7311,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
@@ -7331,7 +7332,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
@@ -7393,10 +7394,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5" t="s">
@@ -7410,10 +7411,10 @@
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="K36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="5" t="s">
@@ -7525,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -7547,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>14</v>
@@ -7569,7 +7570,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
@@ -7591,7 +7592,7 @@
         <v>3</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>14</v>
@@ -7613,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -7654,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -7675,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>12</v>
@@ -7687,7 +7688,7 @@
         <v>92</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -7714,7 +7715,7 @@
         <v>6</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>12</v>
@@ -7753,7 +7754,7 @@
         <v>7</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>14</v>
@@ -7767,7 +7768,7 @@
         <v>92</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -7775,7 +7776,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -7794,7 +7795,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>14</v>
@@ -7835,7 +7836,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>12</v>
@@ -7874,7 +7875,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>12</v>
@@ -7954,10 +7955,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5" t="s">
@@ -7971,10 +7972,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="K53" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="5" t="s">
@@ -8086,7 +8087,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>14</v>
@@ -8108,7 +8109,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>14</v>
@@ -8130,10 +8131,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -8173,7 +8174,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>14</v>
@@ -8236,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>12</v>
@@ -8248,7 +8249,7 @@
         <v>92</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -8275,7 +8276,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>12</v>
@@ -8295,7 +8296,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>12</v>
@@ -8373,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -8452,7 +8453,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>128</v>
@@ -8468,7 +8469,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="7"/>
       <c r="K67" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>127</v>
@@ -8581,7 +8582,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
@@ -8603,7 +8604,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>14</v>
@@ -8625,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>12</v>
@@ -8665,7 +8666,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>40</v>
@@ -8723,7 +8724,7 @@
         <v>5</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>12</v>
@@ -8735,7 +8736,7 @@
         <v>92</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -8782,7 +8783,7 @@
         <v>7</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>12</v>
@@ -8818,7 +8819,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -2808,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4500,403 +4500,443 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7"/>
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="A91" s="3">
         <v>2</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>7</v>
+      <c r="B91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D92" s="3">
+        <v>50</v>
+      </c>
       <c r="E92" s="3"/>
-      <c r="F92" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="3">
-        <v>50</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>4</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>205</v>
+      <c r="E96" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7"/>
+      <c r="A97" s="3">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="A98" s="3">
         <v>3</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>7</v>
+      <c r="B98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D100" s="3">
+        <v>10</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>4</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="3">
+      <c r="G103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3">
         <v>10</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>7</v>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D106" s="3">
+        <v>20</v>
+      </c>
       <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="3">
-        <v>20</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
@@ -4905,46 +4945,6 @@
         <v>91</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>7</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>8</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="3" t="s">
         <v>211</v>
       </c>
     </row>

--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cplayer/Documents/LabDocs/twl/江阴项目/2018.6.25讨论材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDC39D9B-4887-ED43-8D40-616D5858D15A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息管理" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="库存管理" sheetId="3" r:id="rId3"/>
     <sheet name="入库模块" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="322">
   <si>
     <t>序号</t>
   </si>
@@ -2258,32 +2259,40 @@
     <t>materialCtrlProp</t>
   </si>
   <si>
+    <t>materialId</t>
+  </si>
+  <si>
+    <t>materialSku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialCtrlPropVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialCtrlPropValVer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>materialCtrlPropId</t>
-  </si>
-  <si>
-    <t>materialId</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialSku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialCtrlPropVal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialCtrlPropValVer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="2">
+      <t>bei zhu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2807,11 +2816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3369,7 @@
         <v>245</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
@@ -3545,106 +3554,104 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G41" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3652,15 +3659,15 @@
         <v>91</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -3674,183 +3681,185 @@
         <v>91</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H46" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="5" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D52" s="3">
+        <v>20</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
@@ -3862,150 +3871,147 @@
         <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>1</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G60" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L60" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4013,150 +4019,151 @@
         <v>91</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D62" s="3">
+        <v>50</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="5" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G67" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L67" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="L68" s="13"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="3">
         <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3">
-        <v>10</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4164,167 +4171,167 @@
         <v>91</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="3">
-        <v>50</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D72" s="3">
+        <v>20</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H72" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="5" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G77" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>14</v>
@@ -4338,144 +4345,145 @@
         <v>91</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D79" s="3">
+        <v>20</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>5</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="3">
         <v>10</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="3" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="5" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G85" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L85" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>12</v>
@@ -4487,119 +4495,118 @@
         <v>91</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L86" s="13"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="5" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>1</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G91" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="D92" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4607,121 +4614,123 @@
         <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D93" s="3">
+        <v>50</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="5" t="s">
+      <c r="B96" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>1</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G98" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>4</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>315</v>
+        <v>3</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>12</v>
@@ -4733,131 +4742,129 @@
         <v>91</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>5</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="5" t="s">
+      <c r="B103" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G105" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4865,75 +4872,77 @@
         <v>91</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D107" s="3">
+        <v>20</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4" t="s">
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>145</v>
@@ -4941,10 +4950,30 @@
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H110" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>8</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4956,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5578,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6288,7 +6317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">

--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cplayer/Documents/LabDocs/twl/江阴项目/2018.6.25讨论材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDC39D9B-4887-ED43-8D40-616D5858D15A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息管理" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="库存管理" sheetId="3" r:id="rId3"/>
     <sheet name="入库模块" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="322">
   <si>
     <t>序号</t>
   </si>
@@ -1719,13 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物料id</t>
-    <rPh sb="0" eb="1">
-      <t>wu liao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>endDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2259,9 +2251,6 @@
     <t>materialCtrlProp</t>
   </si>
   <si>
-    <t>materialId</t>
-  </si>
-  <si>
     <t>materialSku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,6 +2274,50 @@
     <t>备注</t>
     <rPh sb="0" eb="2">
       <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spuCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一套spu编码的物料（可以允许sku不同）享受同一套控制属性</t>
+    <rPh sb="0" eb="1">
+      <t>tong yi tao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian ma</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu liao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yun xu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiang shou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kong zhi shu xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2292,7 +2325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2816,11 +2849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,10 +2870,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -2909,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -2923,7 +2956,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2931,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2953,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -2967,7 +3000,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -2999,7 +3032,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -3018,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -3038,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -3058,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -3115,121 +3148,119 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -3243,21 +3274,21 @@
         <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3265,35 +3296,37 @@
         <v>91</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -3303,37 +3336,37 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -3341,125 +3374,121 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H25" s="3" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="E29" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -3473,57 +3502,61 @@
         <v>91</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L32" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -3531,17 +3564,19 @@
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H35" s="3" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
@@ -3549,131 +3584,127 @@
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3681,15 +3712,15 @@
         <v>91</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
@@ -3703,183 +3734,185 @@
         <v>91</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="5" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D53" s="3">
+        <v>20</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>12</v>
@@ -3891,150 +3924,147 @@
         <v>91</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H56" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="5" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G61" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L61" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4042,150 +4072,151 @@
         <v>91</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D63" s="3">
+        <v>50</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L68" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D69" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="L69" s="13"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="3">
         <v>4</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3">
-        <v>10</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4193,167 +4224,167 @@
         <v>91</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="3">
-        <v>50</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D73" s="3">
+        <v>20</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H73" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="5" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>1</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G78" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>14</v>
@@ -4367,144 +4398,145 @@
         <v>91</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D80" s="3">
+        <v>20</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>5</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="3">
         <v>10</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="5" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="E84" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G86" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L86" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>12</v>
@@ -4516,119 +4548,118 @@
         <v>91</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L87" s="13"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="5" t="s">
+      <c r="B90" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D92" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="D93" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4636,121 +4667,123 @@
         <v>91</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D94" s="3">
+        <v>50</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H94" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>4</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="5" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>1</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>3</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G99" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>4</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>320</v>
+        <v>3</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>12</v>
@@ -4762,131 +4795,129 @@
         <v>91</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>5</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="5" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>1</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>3</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="C107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3">
         <v>10</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>4</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3">
-        <v>20</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -4894,75 +4925,82 @@
         <v>91</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D108" s="3">
+        <v>20</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H108" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>6</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>7</v>
-      </c>
       <c r="B110" s="3" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D110" s="3">
+        <v>20</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>145</v>
@@ -4970,10 +5008,30 @@
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H112" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4985,7 +5043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5005,7 +5063,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5118,10 +5176,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -5434,14 +5492,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5607,7 +5665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>134</v>
@@ -5705,7 +5763,7 @@
         <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5713,7 +5771,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -5727,7 +5785,7 @@
         <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5749,7 +5807,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5757,7 +5815,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -5769,7 +5827,7 @@
         <v>90</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5789,7 +5847,7 @@
         <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5797,7 +5855,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -5817,7 +5875,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -5844,7 +5902,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>138</v>
@@ -5913,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -5927,7 +5985,7 @@
         <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5949,7 +6007,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5957,7 +6015,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -5969,7 +6027,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -6019,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
@@ -6031,15 +6089,15 @@
         <v>90</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
@@ -6105,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
@@ -6119,7 +6177,7 @@
         <v>92</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K25" s="10"/>
     </row>
@@ -6128,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -6142,7 +6200,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6164,7 +6222,7 @@
         <v>90</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6172,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
@@ -6192,7 +6250,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -6212,10 +6270,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
@@ -6234,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>145</v>
@@ -6317,7 +6375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
@@ -6341,10 +6399,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -6358,10 +6416,10 @@
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="K1" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="5" t="s">
@@ -6473,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -6494,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
@@ -6516,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -6560,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -6574,14 +6632,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>12</v>
@@ -6593,7 +6651,7 @@
         <v>91</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -6620,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>12</v>
@@ -6659,7 +6717,7 @@
         <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>12</v>
@@ -6796,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -6857,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -6878,7 +6936,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -6938,7 +6996,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -6955,7 +7013,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="K20" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>60</v>
@@ -7070,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -7092,7 +7150,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>14</v>
@@ -7114,7 +7172,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
@@ -7136,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>14</v>
@@ -7158,10 +7216,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
@@ -7221,7 +7279,7 @@
         <v>5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
@@ -7233,7 +7291,7 @@
         <v>92</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -7241,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
@@ -7260,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -7340,7 +7398,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
@@ -7361,7 +7419,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
@@ -7423,10 +7481,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5" t="s">
@@ -7440,10 +7498,10 @@
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="K36" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="5" t="s">
@@ -7555,7 +7613,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -7577,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>14</v>
@@ -7599,7 +7657,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
@@ -7621,7 +7679,7 @@
         <v>3</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>14</v>
@@ -7643,7 +7701,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -7684,7 +7742,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -7705,7 +7763,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>12</v>
@@ -7717,7 +7775,7 @@
         <v>92</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -7744,7 +7802,7 @@
         <v>6</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>12</v>
@@ -7783,7 +7841,7 @@
         <v>7</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>14</v>
@@ -7797,7 +7855,7 @@
         <v>92</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -7805,7 +7863,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -7824,7 +7882,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>14</v>
@@ -7865,7 +7923,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>12</v>
@@ -7904,7 +7962,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>12</v>
@@ -7984,10 +8042,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5" t="s">
@@ -8001,10 +8059,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="K53" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="5" t="s">
@@ -8116,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>14</v>
@@ -8138,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>14</v>
@@ -8160,10 +8218,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -8203,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>14</v>
@@ -8217,7 +8275,7 @@
         <v>92</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="10"/>
@@ -8266,7 +8324,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>12</v>
@@ -8278,7 +8336,7 @@
         <v>92</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -8305,7 +8363,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>12</v>
@@ -8325,7 +8383,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>12</v>
@@ -8403,7 +8461,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -8482,7 +8540,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>128</v>
@@ -8498,7 +8556,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="7"/>
       <c r="K67" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>127</v>
@@ -8611,7 +8669,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
@@ -8633,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>14</v>
@@ -8647,7 +8705,7 @@
         <v>92</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -8655,7 +8713,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>12</v>
@@ -8695,7 +8753,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>40</v>
@@ -8753,7 +8811,7 @@
         <v>5</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>12</v>
@@ -8765,7 +8823,7 @@
         <v>92</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -8812,7 +8870,7 @@
         <v>7</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>12</v>
@@ -8848,7 +8906,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cplayer/Documents/LabDocs/twl/江阴项目/2018.6.25讨论材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA03BA-3D4C-AE4F-A815-408F0E2C8BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息管理" sheetId="4" r:id="rId1"/>
     <sheet name="仓库基本信息" sheetId="1" r:id="rId2"/>
-    <sheet name="库存管理" sheetId="3" r:id="rId3"/>
-    <sheet name="入库模块" sheetId="2" r:id="rId4"/>
+    <sheet name="基础信息" sheetId="6" r:id="rId3"/>
+    <sheet name="库存管理" sheetId="3" r:id="rId4"/>
+    <sheet name="入库模块" sheetId="2" r:id="rId5"/>
+    <sheet name="公司信息（逐日已有数据库）" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="502">
   <si>
     <t>序号</t>
   </si>
@@ -1573,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物料基本属性值</t>
     <rPh sb="0" eb="1">
       <t>wu liao</t>
@@ -2319,13 +2318,710 @@
     <rPh sb="27" eb="28">
       <t>kong zhi shu xing</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联的是对应版本号的所属记录ID</t>
+    <rPh sb="0" eb="2">
+      <t>guan lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料类别指的是原材料、半成品、成品、设备等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无类别：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值范围：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定范围多选：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定范围单选：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大最小值：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意文本：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若spu编码为-1则为通用属性（默认属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若spu编码是-1，则说明是此物料编码下的所有不同spu编码的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料控制属性值版本</t>
+    <rPh sb="0" eb="1">
+      <t>wu liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：采购入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：委外加工入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：生产入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：销售退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：生产退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：其他入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_</t>
+  </si>
+  <si>
+    <t>password_</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>name_pinyin</t>
+  </si>
+  <si>
+    <t>sex_</t>
+  </si>
+  <si>
+    <t>avatar_</t>
+  </si>
+  <si>
+    <t>phone_</t>
+  </si>
+  <si>
+    <t>mobile_</t>
+  </si>
+  <si>
+    <t>email_</t>
+  </si>
+  <si>
+    <t>id_card</t>
+  </si>
+  <si>
+    <t>wei_xin</t>
+  </si>
+  <si>
+    <t>wei_bo</t>
+  </si>
+  <si>
+    <t>qq_</t>
+  </si>
+  <si>
+    <t>birth_day</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>position_</t>
+  </si>
+  <si>
+    <t>address_</t>
+  </si>
+  <si>
+    <t>staff_no</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>enroll_number</t>
+  </si>
+  <si>
+    <t>education_</t>
+  </si>
+  <si>
+    <t>entry_day</t>
+  </si>
+  <si>
+    <t>graduateInstitutions</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>cet</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>leave_day</t>
+  </si>
+  <si>
+    <t>enable_</t>
+  </si>
+  <si>
+    <t>remark_</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆帐户</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>姓名拼音</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>部门编号</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>是否记录考勤（0：记录；1：不记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录的用户ID</t>
+  </si>
+  <si>
+    <t>学历ID</t>
+  </si>
+  <si>
+    <t>入职日期</t>
+  </si>
+  <si>
+    <t>毕业院校</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>外语等级</t>
+  </si>
+  <si>
+    <t>离职状态（0：在职；1：离职）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职日期</t>
+  </si>
+  <si>
+    <t>性别（0：未知；1：男；2：女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型（1：普通用户；2：管理员；3：系统用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_</t>
+  </si>
+  <si>
+    <t>id_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>sort_no</t>
+  </si>
+  <si>
+    <t>leaf_</t>
+  </si>
+  <si>
+    <t>shift_id</t>
+  </si>
+  <si>
+    <t>dept_type</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>隶属单位</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>上级部门编号</t>
+  </si>
+  <si>
+    <t>排序号</t>
+  </si>
+  <si>
+    <t>叶子节点（0：树枝节点；1：叶子节点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认班次</t>
+  </si>
+  <si>
+    <t>启用状态</t>
+  </si>
+  <si>
+    <t>集团：0；子公司：1；分公司：2；事业部：3；办事处：4；部门：5；营业部：6；门店：7；工厂：8；项目：9；</t>
+  </si>
+  <si>
+    <t>0：虚拟组织；1：实体组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSupplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEmployee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称谓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是消费者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是供货商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是职工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人：1，公司：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴分类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴分类</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址关联表</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <rPh sb="0" eb="1">
+      <t>ru ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streetSecond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省/州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2521,7 +3217,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2542,6 +3238,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2849,11 +3547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,7 +3560,8 @@
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
     <col min="3" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="13" style="2" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="2"/>
@@ -2870,10 +3569,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -2942,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -2956,7 +3655,7 @@
         <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2964,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -2986,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -3000,7 +3699,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -3032,7 +3731,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -3051,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -3071,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -3091,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -3163,7 +3862,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3171,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -3183,18 +3882,18 @@
         <v>91</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
@@ -3260,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -3274,7 +3973,7 @@
         <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3366,7 +4065,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -3378,7 +4077,7 @@
         <v>91</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3419,17 +4118,17 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -3488,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
@@ -3502,7 +4201,7 @@
         <v>91</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
@@ -3512,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>14</v>
@@ -3526,7 +4225,7 @@
         <v>91</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L33" s="13"/>
     </row>
@@ -3535,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
@@ -3547,7 +4246,7 @@
         <v>91</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L34" s="13"/>
     </row>
@@ -3556,7 +4255,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -3624,15 +4323,15 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="5" t="s">
@@ -3698,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -3821,10 +4520,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="5" t="s">
@@ -3890,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>14</v>
@@ -3904,7 +4603,7 @@
         <v>91</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3912,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>12</v>
@@ -3989,10 +4688,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="5" t="s">
@@ -4058,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
@@ -4074,7 +4773,9 @@
       <c r="H62" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L62" s="13"/>
+      <c r="L62" s="13" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
@@ -4095,7 +4796,10 @@
         <v>91</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -4103,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>12</v>
@@ -4112,133 +4816,145 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>239</v>
+      <c r="H65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="5" t="s">
+      <c r="L66" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G69" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L69" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="L70" s="13"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="3">
         <v>4</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3">
-        <v>10</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4246,167 +4962,184 @@
         <v>91</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>221</v>
+        <v>195</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D74" s="3">
+        <v>50</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="J75" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="5" t="s">
+      <c r="J76" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+      <c r="E77" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>1</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="3">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>263</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>14</v>
@@ -4420,144 +5153,148 @@
         <v>91</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D81" s="3">
+        <v>20</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>5</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="B83" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="3">
         <v>10</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="5" t="s">
+      <c r="H83" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="E85" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>1</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G87" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L87" s="13"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>12</v>
@@ -4569,119 +5306,118 @@
         <v>91</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L88" s="13"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="5" t="s">
+      <c r="B91" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="E91" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="B92" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D93" s="3">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="D94" s="3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4689,121 +5425,123 @@
         <v>91</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D95" s="3">
+        <v>50</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H95" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B99" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>1</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G100" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>4</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>318</v>
+        <v>3</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>12</v>
@@ -4815,131 +5553,132 @@
         <v>91</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>272</v>
+        <v>221</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>5</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>5</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3">
+        <v>20</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+      <c r="E105" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="B106" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>1</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G107" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -4947,80 +5686,82 @@
         <v>91</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3">
-        <v>20</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D111" s="3">
+        <v>20</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>210</v>
+        <v>262</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>145</v>
@@ -5028,11 +5769,34 @@
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5043,10 +5807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +5827,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5176,10 +5940,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -5492,14 +6256,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5665,7 +6429,962 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6018FA41-EDD1-2347-97FB-E42E70C1834E}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20">
+        <v>50</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="20">
+        <v>50</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="20">
+        <v>50</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="20">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="20">
+        <v>20</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="20">
+        <v>30</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="20">
+        <v>30</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20">
+        <v>20</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="21">
+        <v>100</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="20">
+        <v>10</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="20">
+        <v>30</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="20">
+        <v>10</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="20">
+        <v>10</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>3</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="20">
+        <v>50</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>4</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="20">
+        <v>10</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>1</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="20">
+        <v>10</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="20">
+        <v>20</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>3</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="20">
+        <v>20</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="20">
+        <v>20</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>5</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="20">
+        <v>20</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>6</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="20">
+        <v>20</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>7</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="20">
+        <v>20</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>8</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="20">
+        <v>20</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
+        <v>9</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="20">
+        <v>20</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>10</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="20">
+        <v>20</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
+        <v>11</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="20">
+        <v>20</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>12</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="20">
+        <v>20</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5682,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>134</v>
@@ -5763,7 +7482,7 @@
         <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5771,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -5785,7 +7504,7 @@
         <v>90</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5807,7 +7526,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5815,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -5827,7 +7546,7 @@
         <v>90</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5847,7 +7566,7 @@
         <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5855,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -5875,7 +7594,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -5902,7 +7621,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>138</v>
@@ -5971,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -5985,7 +7704,7 @@
         <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6007,7 +7726,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -6015,7 +7734,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -6027,7 +7746,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -6077,7 +7796,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
@@ -6089,15 +7808,15 @@
         <v>90</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
@@ -6163,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
@@ -6177,7 +7896,7 @@
         <v>92</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K25" s="10"/>
     </row>
@@ -6186,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -6200,7 +7919,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6222,7 +7941,7 @@
         <v>90</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6230,7 +7949,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
@@ -6250,7 +7969,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
@@ -6270,10 +7989,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
@@ -6292,7 +8011,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>145</v>
@@ -6374,12 +8093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A41" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6399,10 +8118,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
@@ -6416,10 +8135,10 @@
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="K1" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="5" t="s">
@@ -6531,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -6552,7 +8271,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
@@ -6574,10 +8293,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -6590,7 +8309,9 @@
       <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="3">
         <v>3</v>
@@ -6618,7 +8339,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -6632,14 +8353,16 @@
         <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="K6" s="3">
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>12</v>
@@ -6651,7 +8374,7 @@
         <v>91</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -6673,12 +8396,14 @@
       <c r="H7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="K7" s="3">
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>12</v>
@@ -6712,12 +8437,14 @@
       <c r="H8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K8" s="3">
         <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>12</v>
@@ -6751,7 +8478,9 @@
       <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="K9" s="3">
         <v>7</v>
       </c>
@@ -6790,7 +8519,9 @@
       <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="K10" s="3">
         <v>8</v>
       </c>
@@ -6829,7 +8560,9 @@
       <c r="H11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="K11" s="3">
         <v>9</v>
       </c>
@@ -6854,7 +8587,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -6915,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -6936,7 +8669,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -6996,7 +8729,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -7013,7 +8746,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="K20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>60</v>
@@ -7128,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -7150,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>14</v>
@@ -7172,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
@@ -7194,7 +8927,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>14</v>
@@ -7216,10 +8949,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
@@ -7279,7 +9012,7 @@
         <v>5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
@@ -7291,7 +9024,7 @@
         <v>92</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -7299,7 +9032,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
@@ -7318,7 +9051,7 @@
         <v>6</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -7398,7 +9131,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
@@ -7419,7 +9152,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
@@ -7481,10 +9214,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5" t="s">
@@ -7498,10 +9231,10 @@
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="K36" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="5" t="s">
@@ -7613,7 +9346,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
@@ -7635,7 +9368,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>14</v>
@@ -7657,7 +9390,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>14</v>
@@ -7679,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>14</v>
@@ -7701,7 +9434,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -7742,7 +9475,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>14</v>
@@ -7763,7 +9496,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>12</v>
@@ -7775,7 +9508,7 @@
         <v>92</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -7802,7 +9535,7 @@
         <v>6</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>12</v>
@@ -7841,7 +9574,7 @@
         <v>7</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>14</v>
@@ -7855,7 +9588,7 @@
         <v>92</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -7863,7 +9596,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>12</v>
@@ -7882,7 +9615,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>14</v>
@@ -7923,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>12</v>
@@ -7962,7 +9695,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>12</v>
@@ -8042,10 +9775,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5" t="s">
@@ -8059,10 +9792,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="K53" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="5" t="s">
@@ -8174,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>14</v>
@@ -8196,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>14</v>
@@ -8218,10 +9951,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
@@ -8261,7 +9994,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>14</v>
@@ -8275,7 +10008,7 @@
         <v>92</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="10"/>
@@ -8324,7 +10057,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>12</v>
@@ -8336,7 +10069,7 @@
         <v>92</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -8363,7 +10096,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>12</v>
@@ -8383,7 +10116,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>12</v>
@@ -8461,7 +10194,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -8514,6 +10247,9 @@
       <c r="H64" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="I64" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
@@ -8534,13 +10270,21 @@
       <c r="H65" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="I65" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="K65" s="1"/>
       <c r="M65" s="1"/>
       <c r="R65" s="1"/>
     </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I66" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>128</v>
@@ -8555,8 +10299,9 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7"/>
+      <c r="I67" s="13"/>
       <c r="K67" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>127</v>
@@ -8669,7 +10414,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
@@ -8691,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>14</v>
@@ -8705,7 +10450,7 @@
         <v>92</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -8713,7 +10458,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>12</v>
@@ -8753,7 +10498,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>40</v>
@@ -8811,7 +10556,7 @@
         <v>5</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>12</v>
@@ -8823,7 +10568,7 @@
         <v>92</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -8870,7 +10615,7 @@
         <v>7</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>12</v>
@@ -8906,7 +10651,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8914,4 +10659,1103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA169C4-1116-7A46-9346-8D5BEBDD730B}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="20">
+        <v>20</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="20">
+        <v>20</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="20">
+        <v>50</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="20">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="20">
+        <v>64</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="20">
+        <v>500</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="20">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="20">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="20">
+        <v>64</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="20">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="20">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="20">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="20">
+        <v>32</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="20">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="20">
+        <v>64</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="20">
+        <v>256</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="20">
+        <v>32</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="20">
+        <v>50</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="20">
+        <v>11</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="20">
+        <v>255</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="20">
+        <v>255</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" s="20">
+        <v>50</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1024</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" s="20">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="20">
+        <v>20</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="20">
+        <v>10</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>2</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" s="20">
+        <v>20</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>3</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="20">
+        <v>50</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
+        <v>4</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="20">
+        <v>20</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
+        <v>5</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>6</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="20">
+        <v>7</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D47" s="20">
+        <v>10</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>8</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="20">
+        <v>9</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="20">
+        <v>100</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>10</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" s="20">
+        <v>20</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <v>11</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="20">
+        <v>12</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D52" s="20">
+        <v>20</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
+        <v>13</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="20">
+        <v>14</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="20">
+        <v>15</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" s="20">
+        <v>1</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仓库管理数据库设计20180629.xlsx
+++ b/仓库管理数据库设计20180629.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cplayer/Documents/LabDocs/twl/江阴项目/2018.6.25讨论材料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA03BA-3D4C-AE4F-A815-408F0E2C8BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BEF3910C-1A2E-EB42-88E8-F77903FB172D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息管理" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="公司信息（逐日已有数据库）" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="502">
   <si>
     <t>序号</t>
   </si>
@@ -2876,18 +2877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否是消费者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是供货商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是职工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人：1，公司：2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2954,10 +2943,7 @@
   <si>
     <t>地址</t>
     <rPh sb="0" eb="1">
-      <t>ru ku</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji lu</t>
+      <t>ru kuji lu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3015,6 +3001,18 @@
   </si>
   <si>
     <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是消费者，布尔类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是供货商，布尔类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是职工，布尔类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6432,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6018FA41-EDD1-2347-97FB-E42E70C1834E}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6530,7 +6528,7 @@
         <v>457</v>
       </c>
       <c r="I4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6538,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>12</v>
@@ -6550,7 +6548,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6810,7 +6808,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6830,7 +6828,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6850,7 +6848,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -6878,14 +6876,14 @@
         <v>243</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -6956,9 +6954,11 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="H26" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -6966,14 +6966,14 @@
         <v>243</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7034,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>12</v>
@@ -7046,7 +7046,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>14</v>
@@ -7066,7 +7066,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -7094,14 +7094,14 @@
         <v>243</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -7162,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>14</v>
@@ -7174,7 +7174,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>14</v>
@@ -7194,7 +7194,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -7202,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>14</v>
@@ -7214,7 +7214,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -7222,7 +7222,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>14</v>
@@ -7234,7 +7234,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -7242,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>14</v>
@@ -7254,7 +7254,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>14</v>
@@ -7274,7 +7274,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -7282,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>14</v>
@@ -7294,7 +7294,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -8097,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:H54"/>
+    <sheetView topLeftCell="A44" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10665,7 +10665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA169C4-1116-7A46-9346-8D5BEBDD730B}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
